--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Система" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>Название</t>
   </si>
@@ -434,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -513,11 +513,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY3" sqref="AY3"/>
+      <selection pane="topRight" activeCell="AZ31" sqref="AZ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,96 +593,101 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -693,11 +698,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,175 +718,181 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Название</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Тип</t>
+  </si>
+  <si>
+    <t>Период обращения, дни</t>
+  </si>
+  <si>
+    <t>Сектор</t>
+  </si>
+  <si>
+    <t>Количество крупных спутников</t>
   </si>
 </sst>
 </file>
@@ -432,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +514,11 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -513,11 +527,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ31" sqref="AZ31"/>
+      <selection pane="topRight" activeCell="A14" sqref="A14:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,86 +622,91 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -698,11 +717,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,161 +752,166 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Система" sheetId="1" r:id="rId1"/>
     <sheet name="Звезда" sheetId="2" r:id="rId2"/>
-    <sheet name="Планета" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Название</t>
   </si>
@@ -30,9 +29,6 @@
   </si>
   <si>
     <t>Период вращения</t>
-  </si>
-  <si>
-    <t>Период обращения</t>
   </si>
   <si>
     <t>Количество планет</t>
@@ -461,62 +457,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -529,9 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14:A35"/>
+      <selection pane="topRight" activeCell="AY36" sqref="AY36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,57 +543,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -607,7 +603,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -617,57 +613,57 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -677,246 +673,40 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="79" width="20.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -28,9 +28,6 @@
     <t>Класс</t>
   </si>
   <si>
-    <t>Период вращения</t>
-  </si>
-  <si>
     <t>Количество планет</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>Количество крупных спутников</t>
+  </si>
+  <si>
+    <t>Период вращения, дни</t>
   </si>
 </sst>
 </file>
@@ -457,62 +457,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -525,9 +525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY36" sqref="AY36"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,57 +543,57 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -613,97 +613,97 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Название</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Период вращения, дни</t>
+  </si>
+  <si>
+    <t>Период вращения, часы</t>
   </si>
 </sst>
 </file>
@@ -523,11 +526,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A28" sqref="A28"/>
+      <selection pane="topRight" activeCell="AY29" sqref="AY29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,41 +671,46 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Название</t>
   </si>
@@ -34,66 +34,9 @@
     <t>Количество спутников</t>
   </si>
   <si>
-    <t>Температура поверхности, K</t>
-  </si>
-  <si>
-    <t>Радиуc, м</t>
-  </si>
-  <si>
-    <t>Масса, кг</t>
-  </si>
-  <si>
-    <t>Светимость, Вт</t>
-  </si>
-  <si>
     <t>Спектральный класс</t>
   </si>
   <si>
-    <t>Радиуc, Rc</t>
-  </si>
-  <si>
-    <t>Масса, Мс</t>
-  </si>
-  <si>
-    <t>Светимость, Lc</t>
-  </si>
-  <si>
-    <t>Радиуc, Rз</t>
-  </si>
-  <si>
-    <t>Масса, Мз</t>
-  </si>
-  <si>
-    <t>Плотность, кг/м^3</t>
-  </si>
-  <si>
-    <t>Ускорение свободного падения, м/с^2</t>
-  </si>
-  <si>
-    <t>Интенсивность, Вт/м^2</t>
-  </si>
-  <si>
-    <t>Большая полуось орбиты, м</t>
-  </si>
-  <si>
-    <t>Большая полуось орбиты, а.е.</t>
-  </si>
-  <si>
-    <t>1 космическая скорость, м/с</t>
-  </si>
-  <si>
-    <t>2 космическая скорость, м/с</t>
-  </si>
-  <si>
-    <t>3 космическая скорость, м/с</t>
-  </si>
-  <si>
-    <t>Скорость движения по орбите, м/с</t>
-  </si>
-  <si>
-    <t>Угол наклона оси, градусы</t>
-  </si>
-  <si>
     <t>Наличие колец</t>
   </si>
   <si>
@@ -103,9 +46,6 @@
     <t>Тип</t>
   </si>
   <si>
-    <t>Период обращения, дни</t>
-  </si>
-  <si>
     <t>Сектор</t>
   </si>
   <si>
@@ -116,6 +56,48 @@
   </si>
   <si>
     <t>Период вращения, часы</t>
+  </si>
+  <si>
+    <t>Планетарная равновесная температура</t>
+  </si>
+  <si>
+    <t>Ускорение свободного падения</t>
+  </si>
+  <si>
+    <t>Плотность</t>
+  </si>
+  <si>
+    <t>Масса</t>
+  </si>
+  <si>
+    <t>Радиуc</t>
+  </si>
+  <si>
+    <t>Период обращения</t>
+  </si>
+  <si>
+    <t>1 космическая скорость</t>
+  </si>
+  <si>
+    <t>2 космическая скорость</t>
+  </si>
+  <si>
+    <t>3 космическая скорость</t>
+  </si>
+  <si>
+    <t>Скорость движения по орбите</t>
+  </si>
+  <si>
+    <t>Угол наклона оси</t>
+  </si>
+  <si>
+    <t>Большая полуось орбиты</t>
+  </si>
+  <si>
+    <t>Светимость</t>
+  </si>
+  <si>
+    <t>Температура поверхности</t>
   </si>
 </sst>
 </file>
@@ -444,7 +426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,17 +442,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -480,42 +462,42 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -528,14 +510,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AY1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY29" sqref="AY29"/>
+      <selection pane="topRight" sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="64" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -546,17 +528,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -566,37 +548,37 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -606,7 +588,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -621,27 +603,27 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -651,67 +633,67 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
